--- a/examples/output_dataFromPrompt.xlsx
+++ b/examples/output_dataFromPrompt.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>674</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4">
